--- a/docs/Testing/BugList.xlsx
+++ b/docs/Testing/BugList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74A4155-42B6-4231-88C2-FECAAD84C026}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C02BB-C1E2-42DD-B97E-9EE36E8B6C11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,10 +160,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -180,16 +180,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A31E5678-FB04-430D-88D9-180A198DC713}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A31E5678-FB04-430D-88D9-180A198DC713}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E27" xr:uid="{996F72EB-E0AC-4ADC-93C6-8D282C6A45C6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7773B99-F305-42D4-923B-FE546E969243}" name="#" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{C7773B99-F305-42D4-923B-FE546E969243}" name="#" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> ROW() - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{41691316-59EF-4B6C-ADAF-64ED12146EE7}" name="Screen" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{1C2A7CC6-1CF1-48B4-9244-6FBEA61697ED}" name="Mô tả" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{724AE608-F54C-419F-842F-6A1E4B23E826}" name="Mong đợi" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B6820973-E468-4A0A-A257-5BA4E109CBB2}" name="Tình Trạng" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{41691316-59EF-4B6C-ADAF-64ED12146EE7}" name="Screen" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{1C2A7CC6-1CF1-48B4-9244-6FBEA61697ED}" name="Mô tả" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{724AE608-F54C-419F-842F-6A1E4B23E826}" name="Mong đợi" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B6820973-E468-4A0A-A257-5BA4E109CBB2}" name="Tình Trạng" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
